--- a/Raw Data/aircraft.xlsx
+++ b/Raw Data/aircraft.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A220F3B-C5E8-484B-8BA4-F61BE1DD198B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5D226-FD4F-445A-B57D-65495E7AA7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1336,7 +1336,7 @@
   <dimension ref="A1:J86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O74" sqref="O74"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1402,7 +1402,9 @@
       <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
@@ -1432,7 +1434,9 @@
       <c r="G3" s="1">
         <v>30</v>
       </c>
-      <c r="H3" s="1"/>
+      <c r="H3" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
       </c>
@@ -1462,7 +1466,9 @@
       <c r="G4" s="1">
         <v>30</v>
       </c>
-      <c r="H4" s="1"/>
+      <c r="H4" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
       </c>
@@ -1492,7 +1498,9 @@
       <c r="G5" s="1">
         <v>30</v>
       </c>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1530,9 @@
       <c r="G6" s="1">
         <v>30</v>
       </c>
-      <c r="H6" s="1"/>
+      <c r="H6" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1552,7 +1562,9 @@
       <c r="G7" s="1">
         <v>30</v>
       </c>
-      <c r="H7" s="1"/>
+      <c r="H7" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1582,7 +1594,9 @@
       <c r="G8" s="1">
         <v>30</v>
       </c>
-      <c r="H8" s="1"/>
+      <c r="H8" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
       </c>
@@ -1612,7 +1626,9 @@
       <c r="G9" s="1">
         <v>30</v>
       </c>
-      <c r="H9" s="1"/>
+      <c r="H9" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I9" s="1" t="s">
         <v>21</v>
       </c>
@@ -1642,7 +1658,9 @@
       <c r="G10" s="1">
         <v>35</v>
       </c>
-      <c r="H10" s="1"/>
+      <c r="H10" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
@@ -1672,7 +1690,9 @@
       <c r="G11" s="1">
         <v>35</v>
       </c>
-      <c r="H11" s="1"/>
+      <c r="H11" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
       </c>
@@ -1702,7 +1722,9 @@
       <c r="G12" s="1">
         <v>35</v>
       </c>
-      <c r="H12" s="1"/>
+      <c r="H12" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
       </c>
@@ -1732,7 +1754,9 @@
       <c r="G13" s="1">
         <v>35</v>
       </c>
-      <c r="H13" s="1"/>
+      <c r="H13" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
       </c>
@@ -1762,7 +1786,9 @@
       <c r="G14" s="1">
         <v>35</v>
       </c>
-      <c r="H14" s="1"/>
+      <c r="H14" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
@@ -1792,7 +1818,9 @@
       <c r="G15" s="1">
         <v>35</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I15" s="1" t="s">
         <v>41</v>
       </c>
@@ -1822,7 +1850,9 @@
       <c r="G16" s="1">
         <v>35</v>
       </c>
-      <c r="H16" s="1"/>
+      <c r="H16" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
       </c>
@@ -1852,7 +1882,9 @@
       <c r="G17" s="1">
         <v>35</v>
       </c>
-      <c r="H17" s="1"/>
+      <c r="H17" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>44</v>
       </c>
@@ -1882,7 +1914,9 @@
       <c r="G18" s="1">
         <v>35</v>
       </c>
-      <c r="H18" s="1"/>
+      <c r="H18" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I18" s="1" t="s">
         <v>38</v>
       </c>
@@ -1912,7 +1946,9 @@
       <c r="G19" s="1">
         <v>35</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="H19" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I19" s="1" t="s">
         <v>47</v>
       </c>
@@ -1942,7 +1978,9 @@
       <c r="G20" s="1">
         <v>35</v>
       </c>
-      <c r="H20" s="1"/>
+      <c r="H20" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1972,7 +2010,9 @@
       <c r="G21" s="1">
         <v>35</v>
       </c>
-      <c r="H21" s="1"/>
+      <c r="H21" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>21</v>
       </c>
@@ -2002,7 +2042,9 @@
       <c r="G22" s="1">
         <v>35</v>
       </c>
-      <c r="H22" s="1"/>
+      <c r="H22" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I22" s="1" t="s">
         <v>51</v>
       </c>
@@ -2032,7 +2074,9 @@
       <c r="G23" s="1">
         <v>35</v>
       </c>
-      <c r="H23" s="1"/>
+      <c r="H23" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I23" s="1" t="s">
         <v>21</v>
       </c>
@@ -2062,7 +2106,9 @@
       <c r="G24" s="1">
         <v>35</v>
       </c>
-      <c r="H24" s="1"/>
+      <c r="H24" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I24" s="1" t="s">
         <v>35</v>
       </c>
@@ -2092,7 +2138,9 @@
       <c r="G25" s="1">
         <v>35</v>
       </c>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>56</v>
       </c>
@@ -2122,7 +2170,9 @@
       <c r="G26" s="1">
         <v>35</v>
       </c>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I26" s="1" t="s">
         <v>38</v>
       </c>
@@ -2152,7 +2202,9 @@
       <c r="G27" s="1">
         <v>35</v>
       </c>
-      <c r="H27" s="1"/>
+      <c r="H27" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I27" s="1" t="s">
         <v>60</v>
       </c>
@@ -2182,7 +2234,9 @@
       <c r="G28" s="1">
         <v>40</v>
       </c>
-      <c r="H28" s="1"/>
+      <c r="H28" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I28" s="1" t="s">
         <v>30</v>
       </c>
@@ -2212,7 +2266,9 @@
       <c r="G29" s="1">
         <v>40</v>
       </c>
-      <c r="H29" s="1"/>
+      <c r="H29" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
       </c>
@@ -2242,7 +2298,9 @@
       <c r="G30" s="1">
         <v>40</v>
       </c>
-      <c r="H30" s="1"/>
+      <c r="H30" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I30" s="1" t="s">
         <v>67</v>
       </c>
@@ -2272,7 +2330,9 @@
       <c r="G31" s="1">
         <v>40</v>
       </c>
-      <c r="H31" s="1"/>
+      <c r="H31" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I31" s="1" t="s">
         <v>70</v>
       </c>
@@ -2302,7 +2362,9 @@
       <c r="G32" s="1">
         <v>40</v>
       </c>
-      <c r="H32" s="1"/>
+      <c r="H32" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>21</v>
       </c>
@@ -2332,7 +2394,9 @@
       <c r="G33" s="1">
         <v>40</v>
       </c>
-      <c r="H33" s="1"/>
+      <c r="H33" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
       </c>
@@ -2362,7 +2426,9 @@
       <c r="G34" s="1">
         <v>40</v>
       </c>
-      <c r="H34" s="1"/>
+      <c r="H34" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I34" s="1" t="s">
         <v>47</v>
       </c>
@@ -2392,7 +2458,9 @@
       <c r="G35" s="1">
         <v>40</v>
       </c>
-      <c r="H35" s="1"/>
+      <c r="H35" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>21</v>
       </c>
@@ -2422,7 +2490,9 @@
       <c r="G36" s="1">
         <v>40</v>
       </c>
-      <c r="H36" s="1"/>
+      <c r="H36" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>21</v>
       </c>
@@ -2452,7 +2522,9 @@
       <c r="G37" s="1">
         <v>40</v>
       </c>
-      <c r="H37" s="1"/>
+      <c r="H37" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>47</v>
       </c>
@@ -2482,7 +2554,9 @@
       <c r="G38" s="1">
         <v>40</v>
       </c>
-      <c r="H38" s="1"/>
+      <c r="H38" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>47</v>
       </c>
@@ -2512,7 +2586,9 @@
       <c r="G39" s="1">
         <v>40</v>
       </c>
-      <c r="H39" s="1"/>
+      <c r="H39" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>56</v>
       </c>
@@ -2542,7 +2618,9 @@
       <c r="G40" s="1">
         <v>40</v>
       </c>
-      <c r="H40" s="1"/>
+      <c r="H40" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,7 +2650,9 @@
       <c r="G41" s="1">
         <v>40</v>
       </c>
-      <c r="H41" s="1"/>
+      <c r="H41" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>21</v>
       </c>
@@ -2602,7 +2682,9 @@
       <c r="G42" s="1">
         <v>40</v>
       </c>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>70</v>
       </c>
@@ -2632,7 +2714,9 @@
       <c r="G43" s="1">
         <v>40</v>
       </c>
-      <c r="H43" s="1"/>
+      <c r="H43" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>83</v>
       </c>
@@ -2662,7 +2746,9 @@
       <c r="G44" s="1">
         <v>40</v>
       </c>
-      <c r="H44" s="1"/>
+      <c r="H44" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>56</v>
       </c>
@@ -2692,7 +2778,9 @@
       <c r="G45" s="1">
         <v>40</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I45" s="1" t="s">
         <v>83</v>
       </c>
@@ -2722,7 +2810,9 @@
       <c r="G46" s="1">
         <v>40</v>
       </c>
-      <c r="H46" s="1"/>
+      <c r="H46" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I46" s="1" t="s">
         <v>47</v>
       </c>
@@ -2752,7 +2842,9 @@
       <c r="G47" s="1">
         <v>40</v>
       </c>
-      <c r="H47" s="1"/>
+      <c r="H47" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I47" s="1" t="s">
         <v>17</v>
       </c>
@@ -2782,7 +2874,9 @@
       <c r="G48" s="1">
         <v>40</v>
       </c>
-      <c r="H48" s="1"/>
+      <c r="H48" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I48" s="1" t="s">
         <v>56</v>
       </c>
@@ -2812,7 +2906,9 @@
       <c r="G49" s="1">
         <v>40</v>
       </c>
-      <c r="H49" s="1"/>
+      <c r="H49" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I49" s="1" t="s">
         <v>19</v>
       </c>
@@ -2842,7 +2938,9 @@
       <c r="G50" s="1">
         <v>40</v>
       </c>
-      <c r="H50" s="1"/>
+      <c r="H50" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>56</v>
       </c>
@@ -2872,7 +2970,9 @@
       <c r="G51" s="1">
         <v>40</v>
       </c>
-      <c r="H51" s="1"/>
+      <c r="H51" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>19</v>
       </c>
@@ -2902,7 +3002,9 @@
       <c r="G52" s="1">
         <v>45</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>47</v>
       </c>
@@ -2932,7 +3034,9 @@
       <c r="G53" s="1">
         <v>45</v>
       </c>
-      <c r="H53" s="1"/>
+      <c r="H53" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I53" s="1" t="s">
         <v>60</v>
       </c>
@@ -2962,7 +3066,9 @@
       <c r="G54" s="1">
         <v>45</v>
       </c>
-      <c r="H54" s="1"/>
+      <c r="H54" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>83</v>
       </c>
@@ -2992,7 +3098,9 @@
       <c r="G55" s="1">
         <v>45</v>
       </c>
-      <c r="H55" s="1"/>
+      <c r="H55" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>38</v>
       </c>
@@ -3022,7 +3130,9 @@
       <c r="G56" s="1">
         <v>45</v>
       </c>
-      <c r="H56" s="1"/>
+      <c r="H56" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I56" s="1" t="s">
         <v>35</v>
       </c>
@@ -3052,7 +3162,9 @@
       <c r="G57" s="1">
         <v>30</v>
       </c>
-      <c r="H57" s="1"/>
+      <c r="H57" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>104</v>
       </c>
@@ -3082,7 +3194,9 @@
       <c r="G58" s="1">
         <v>30</v>
       </c>
-      <c r="H58" s="1"/>
+      <c r="H58" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>106</v>
       </c>
@@ -3112,7 +3226,9 @@
       <c r="G59" s="1">
         <v>30</v>
       </c>
-      <c r="H59" s="1"/>
+      <c r="H59" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>108</v>
       </c>
@@ -3142,7 +3258,9 @@
       <c r="G60" s="1">
         <v>30</v>
       </c>
-      <c r="H60" s="1"/>
+      <c r="H60" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>23</v>
       </c>
@@ -3172,7 +3290,9 @@
       <c r="G61" s="1">
         <v>30</v>
       </c>
-      <c r="H61" s="1"/>
+      <c r="H61" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>113</v>
       </c>
@@ -3202,7 +3322,9 @@
       <c r="G62" s="1">
         <v>30</v>
       </c>
-      <c r="H62" s="1"/>
+      <c r="H62" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I62" s="1" t="s">
         <v>44</v>
       </c>
@@ -3232,7 +3354,9 @@
       <c r="G63" s="1">
         <v>25</v>
       </c>
-      <c r="H63" s="1"/>
+      <c r="H63" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>25</v>
       </c>
@@ -3262,7 +3386,9 @@
       <c r="G64" s="1">
         <v>25</v>
       </c>
-      <c r="H64" s="1"/>
+      <c r="H64" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>120</v>
       </c>
@@ -3292,7 +3418,9 @@
       <c r="G65" s="1">
         <v>25</v>
       </c>
-      <c r="H65" s="1"/>
+      <c r="H65" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I65" s="1" t="s">
         <v>106</v>
       </c>
@@ -3322,7 +3450,9 @@
       <c r="G66" s="1">
         <v>25</v>
       </c>
-      <c r="H66" s="1"/>
+      <c r="H66" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>83</v>
       </c>
@@ -3352,7 +3482,9 @@
       <c r="G67" s="1">
         <v>30</v>
       </c>
-      <c r="H67" s="1"/>
+      <c r="H67" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>47</v>
       </c>
@@ -3382,7 +3514,9 @@
       <c r="G68" s="1">
         <v>30</v>
       </c>
-      <c r="H68" s="1"/>
+      <c r="H68" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>106</v>
       </c>
@@ -3412,7 +3546,9 @@
       <c r="G69" s="1">
         <v>30</v>
       </c>
-      <c r="H69" s="1"/>
+      <c r="H69" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I69" s="1" t="s">
         <v>19</v>
       </c>
@@ -3442,7 +3578,9 @@
       <c r="G70" s="1">
         <v>25</v>
       </c>
-      <c r="H70" s="1"/>
+      <c r="H70" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I70" s="1" t="s">
         <v>30</v>
       </c>
@@ -3472,7 +3610,9 @@
       <c r="G71" s="1">
         <v>25</v>
       </c>
-      <c r="H71" s="1"/>
+      <c r="H71" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I71" s="1" t="s">
         <v>133</v>
       </c>
@@ -3502,7 +3642,9 @@
       <c r="G72" s="1">
         <v>25</v>
       </c>
-      <c r="H72" s="1"/>
+      <c r="H72" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I72" s="1" t="s">
         <v>136</v>
       </c>
@@ -3532,7 +3674,9 @@
       <c r="G73" s="1">
         <v>25</v>
       </c>
-      <c r="H73" s="1"/>
+      <c r="H73" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I73" s="1" t="s">
         <v>138</v>
       </c>
@@ -3562,7 +3706,9 @@
       <c r="G74" s="1">
         <v>25</v>
       </c>
-      <c r="H74" s="1"/>
+      <c r="H74" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I74" s="1" t="s">
         <v>12</v>
       </c>
@@ -3592,7 +3738,9 @@
       <c r="G75" s="1">
         <v>25</v>
       </c>
-      <c r="H75" s="1"/>
+      <c r="H75" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I75" s="1" t="s">
         <v>141</v>
       </c>
@@ -3622,7 +3770,9 @@
       <c r="G76" s="1">
         <v>25</v>
       </c>
-      <c r="H76" s="1"/>
+      <c r="H76" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I76" s="1" t="s">
         <v>19</v>
       </c>
@@ -3652,7 +3802,9 @@
       <c r="G77" s="1">
         <v>30</v>
       </c>
-      <c r="H77" s="1"/>
+      <c r="H77" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I77" s="1" t="s">
         <v>30</v>
       </c>
@@ -3682,7 +3834,9 @@
       <c r="G78" s="1">
         <v>30</v>
       </c>
-      <c r="H78" s="1"/>
+      <c r="H78" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I78" s="1" t="s">
         <v>44</v>
       </c>
@@ -3712,7 +3866,9 @@
       <c r="G79" s="1">
         <v>30</v>
       </c>
-      <c r="H79" s="1"/>
+      <c r="H79" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I79" s="1" t="s">
         <v>17</v>
       </c>
@@ -3742,7 +3898,9 @@
       <c r="G80" s="1">
         <v>30</v>
       </c>
-      <c r="H80" s="1"/>
+      <c r="H80" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I80" s="1" t="s">
         <v>21</v>
       </c>
@@ -3772,7 +3930,9 @@
       <c r="G81" s="1">
         <v>30</v>
       </c>
-      <c r="H81" s="1"/>
+      <c r="H81" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I81" s="1" t="s">
         <v>33</v>
       </c>
@@ -3802,7 +3962,9 @@
       <c r="G82" s="1">
         <v>30</v>
       </c>
-      <c r="H82" s="1"/>
+      <c r="H82" s="1">
+        <v>0.5</v>
+      </c>
       <c r="I82" s="1" t="s">
         <v>106</v>
       </c>

--- a/Raw Data/aircraft.xlsx
+++ b/Raw Data/aircraft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA5D226-FD4F-445A-B57D-65495E7AA7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EFF77-60EF-44B2-ADCA-DFAD8023AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,7 +1403,7 @@
         <v>30</v>
       </c>
       <c r="H2" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
@@ -1435,7 +1435,7 @@
         <v>30</v>
       </c>
       <c r="H3" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>15</v>
@@ -1467,7 +1467,7 @@
         <v>30</v>
       </c>
       <c r="H4" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
@@ -1499,7 +1499,7 @@
         <v>30</v>
       </c>
       <c r="H5" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>19</v>
@@ -1531,7 +1531,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>21</v>
@@ -1563,7 +1563,7 @@
         <v>30</v>
       </c>
       <c r="H7" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>23</v>
@@ -1595,7 +1595,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
@@ -1627,7 +1627,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>21</v>
@@ -1659,7 +1659,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>30</v>
@@ -1691,7 +1691,7 @@
         <v>35</v>
       </c>
       <c r="H11" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
@@ -1723,7 +1723,7 @@
         <v>35</v>
       </c>
       <c r="H12" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>35</v>
@@ -1755,7 +1755,7 @@
         <v>35</v>
       </c>
       <c r="H13" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>38</v>
@@ -1787,7 +1787,7 @@
         <v>35</v>
       </c>
       <c r="H14" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>21</v>
@@ -1819,7 +1819,7 @@
         <v>35</v>
       </c>
       <c r="H15" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>41</v>
@@ -1851,7 +1851,7 @@
         <v>35</v>
       </c>
       <c r="H16" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>21</v>
@@ -1883,7 +1883,7 @@
         <v>35</v>
       </c>
       <c r="H17" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>44</v>
@@ -1915,7 +1915,7 @@
         <v>35</v>
       </c>
       <c r="H18" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>38</v>
@@ -1947,7 +1947,7 @@
         <v>35</v>
       </c>
       <c r="H19" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>47</v>
@@ -1979,7 +1979,7 @@
         <v>35</v>
       </c>
       <c r="H20" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>21</v>
@@ -2011,7 +2011,7 @@
         <v>35</v>
       </c>
       <c r="H21" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>21</v>
@@ -2043,7 +2043,7 @@
         <v>35</v>
       </c>
       <c r="H22" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>51</v>
@@ -2075,7 +2075,7 @@
         <v>35</v>
       </c>
       <c r="H23" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>21</v>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="H24" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>35</v>
@@ -2139,7 +2139,7 @@
         <v>35</v>
       </c>
       <c r="H25" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>56</v>
@@ -2171,7 +2171,7 @@
         <v>35</v>
       </c>
       <c r="H26" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>38</v>
@@ -2203,7 +2203,7 @@
         <v>35</v>
       </c>
       <c r="H27" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>60</v>
@@ -2235,7 +2235,7 @@
         <v>40</v>
       </c>
       <c r="H28" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>30</v>
@@ -2267,7 +2267,7 @@
         <v>40</v>
       </c>
       <c r="H29" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>65</v>
@@ -2299,7 +2299,7 @@
         <v>40</v>
       </c>
       <c r="H30" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>67</v>
@@ -2331,7 +2331,7 @@
         <v>40</v>
       </c>
       <c r="H31" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>70</v>
@@ -2363,7 +2363,7 @@
         <v>40</v>
       </c>
       <c r="H32" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>21</v>
@@ -2395,7 +2395,7 @@
         <v>40</v>
       </c>
       <c r="H33" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>17</v>
@@ -2427,7 +2427,7 @@
         <v>40</v>
       </c>
       <c r="H34" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>47</v>
@@ -2459,7 +2459,7 @@
         <v>40</v>
       </c>
       <c r="H35" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>21</v>
@@ -2491,7 +2491,7 @@
         <v>40</v>
       </c>
       <c r="H36" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>21</v>
@@ -2523,7 +2523,7 @@
         <v>40</v>
       </c>
       <c r="H37" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>47</v>
@@ -2555,7 +2555,7 @@
         <v>40</v>
       </c>
       <c r="H38" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>47</v>
@@ -2587,7 +2587,7 @@
         <v>40</v>
       </c>
       <c r="H39" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>56</v>
@@ -2619,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="H40" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>44</v>
@@ -2651,7 +2651,7 @@
         <v>40</v>
       </c>
       <c r="H41" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>21</v>
@@ -2683,7 +2683,7 @@
         <v>40</v>
       </c>
       <c r="H42" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>70</v>
@@ -2715,7 +2715,7 @@
         <v>40</v>
       </c>
       <c r="H43" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>83</v>
@@ -2747,7 +2747,7 @@
         <v>40</v>
       </c>
       <c r="H44" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>56</v>
@@ -2779,7 +2779,7 @@
         <v>40</v>
       </c>
       <c r="H45" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I45" s="1" t="s">
         <v>83</v>
@@ -2811,7 +2811,7 @@
         <v>40</v>
       </c>
       <c r="H46" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I46" s="1" t="s">
         <v>47</v>
@@ -2843,7 +2843,7 @@
         <v>40</v>
       </c>
       <c r="H47" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I47" s="1" t="s">
         <v>17</v>
@@ -2875,7 +2875,7 @@
         <v>40</v>
       </c>
       <c r="H48" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>56</v>
@@ -2907,7 +2907,7 @@
         <v>40</v>
       </c>
       <c r="H49" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I49" s="1" t="s">
         <v>19</v>
@@ -2939,7 +2939,7 @@
         <v>40</v>
       </c>
       <c r="H50" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I50" s="1" t="s">
         <v>56</v>
@@ -2971,7 +2971,7 @@
         <v>40</v>
       </c>
       <c r="H51" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I51" s="1" t="s">
         <v>19</v>
@@ -3003,7 +3003,7 @@
         <v>45</v>
       </c>
       <c r="H52" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>47</v>
@@ -3035,7 +3035,7 @@
         <v>45</v>
       </c>
       <c r="H53" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I53" s="1" t="s">
         <v>60</v>
@@ -3067,7 +3067,7 @@
         <v>45</v>
       </c>
       <c r="H54" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>83</v>
@@ -3099,7 +3099,7 @@
         <v>45</v>
       </c>
       <c r="H55" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>38</v>
@@ -3131,7 +3131,7 @@
         <v>45</v>
       </c>
       <c r="H56" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>35</v>
@@ -3163,7 +3163,7 @@
         <v>30</v>
       </c>
       <c r="H57" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>104</v>
@@ -3195,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="H58" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>106</v>
@@ -3227,7 +3227,7 @@
         <v>30</v>
       </c>
       <c r="H59" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>108</v>
@@ -3259,7 +3259,7 @@
         <v>30</v>
       </c>
       <c r="H60" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>23</v>
@@ -3291,7 +3291,7 @@
         <v>30</v>
       </c>
       <c r="H61" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>113</v>
@@ -3323,7 +3323,7 @@
         <v>30</v>
       </c>
       <c r="H62" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>44</v>
@@ -3355,7 +3355,7 @@
         <v>25</v>
       </c>
       <c r="H63" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I63" s="1" t="s">
         <v>25</v>
@@ -3387,7 +3387,7 @@
         <v>25</v>
       </c>
       <c r="H64" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>120</v>
@@ -3419,7 +3419,7 @@
         <v>25</v>
       </c>
       <c r="H65" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>106</v>
@@ -3451,7 +3451,7 @@
         <v>25</v>
       </c>
       <c r="H66" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>83</v>
@@ -3483,7 +3483,7 @@
         <v>30</v>
       </c>
       <c r="H67" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I67" s="1" t="s">
         <v>47</v>
@@ -3515,7 +3515,7 @@
         <v>30</v>
       </c>
       <c r="H68" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>106</v>
@@ -3547,7 +3547,7 @@
         <v>30</v>
       </c>
       <c r="H69" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>19</v>
@@ -3579,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="H70" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>30</v>
@@ -3611,7 +3611,7 @@
         <v>25</v>
       </c>
       <c r="H71" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>133</v>
@@ -3643,7 +3643,7 @@
         <v>25</v>
       </c>
       <c r="H72" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>136</v>
@@ -3675,7 +3675,7 @@
         <v>25</v>
       </c>
       <c r="H73" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>138</v>
@@ -3707,7 +3707,7 @@
         <v>25</v>
       </c>
       <c r="H74" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>12</v>
@@ -3739,7 +3739,7 @@
         <v>25</v>
       </c>
       <c r="H75" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>141</v>
@@ -3771,7 +3771,7 @@
         <v>25</v>
       </c>
       <c r="H76" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>19</v>
@@ -3803,7 +3803,7 @@
         <v>30</v>
       </c>
       <c r="H77" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I77" s="1" t="s">
         <v>30</v>
@@ -3835,7 +3835,7 @@
         <v>30</v>
       </c>
       <c r="H78" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>44</v>
@@ -3867,7 +3867,7 @@
         <v>30</v>
       </c>
       <c r="H79" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>17</v>
@@ -3899,7 +3899,7 @@
         <v>30</v>
       </c>
       <c r="H80" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>21</v>
@@ -3931,7 +3931,7 @@
         <v>30</v>
       </c>
       <c r="H81" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>33</v>
@@ -3963,7 +3963,7 @@
         <v>30</v>
       </c>
       <c r="H82" s="1">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>106</v>

--- a/Raw Data/aircraft.xlsx
+++ b/Raw Data/aircraft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\Raw Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31EFF77-60EF-44B2-ADCA-DFAD8023AE74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039F92E3-25C5-42B7-A9EB-A18ADDA6CDC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aircraft" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="158">
   <si>
     <t>Model#ID</t>
   </si>
@@ -490,6 +490,21 @@
   </si>
   <si>
     <t>Landed time</t>
+  </si>
+  <si>
+    <t>TranspCom#1</t>
+  </si>
+  <si>
+    <t>TranspCom</t>
+  </si>
+  <si>
+    <t>TranspCom#2</t>
+  </si>
+  <si>
+    <t>TranspCom#3</t>
+  </si>
+  <si>
+    <t>TranspCom#4</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H82"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3973,52 +3988,132 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="1"/>
-      <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
+      <c r="A83" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>120</v>
+      </c>
+      <c r="F83" s="1">
+        <v>0</v>
+      </c>
+      <c r="G83" s="1">
+        <v>10</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="1"/>
-      <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
+      <c r="A84" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E84" s="1">
+        <v>120</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+      <c r="G84" s="1">
+        <v>10</v>
+      </c>
+      <c r="H84" s="1">
+        <v>0</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-      <c r="B85" s="1"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="1"/>
-      <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
+      <c r="A85" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E85" s="1">
+        <v>120</v>
+      </c>
+      <c r="F85" s="1">
+        <v>0</v>
+      </c>
+      <c r="G85" s="1">
+        <v>10</v>
+      </c>
+      <c r="H85" s="1">
+        <v>0</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-      <c r="B86" s="1"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
+      <c r="A86" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>120</v>
+      </c>
+      <c r="F86" s="1">
+        <v>0</v>
+      </c>
+      <c r="G86" s="1">
+        <v>10</v>
+      </c>
+      <c r="H86" s="1">
+        <v>0</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
